--- a/data/trans_bre/P24_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>71,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>79,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>66,78%</t>
+          <t>-23,82%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>71,3%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>92,05%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,27</t>
+          <t>-1,56; 4,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,84</t>
+          <t>-2,1; 7,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 3,6</t>
+          <t>-7,71; 3,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 7,15</t>
+          <t>-2,05; 8,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-56,43; 278,8</t>
+          <t>0,38; 13,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 345,5</t>
+          <t>-64,45; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-51,85; 79,88</t>
+          <t>-38,46; 437,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 219,39</t>
+          <t>-70,74; 78,34</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-31,22; 298,46</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,35; 320,26</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,77%</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>33,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>-50,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>-37,58%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-37,63%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>83,73%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 3,11</t>
+          <t>-2,78; 4,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 6,44</t>
+          <t>-10,86; 0,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 5,28</t>
+          <t>-10,35; 1,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 7,92</t>
+          <t>-7,28; 2,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-66,2; 119,25</t>
+          <t>-1,32; 22,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-44,97; 172,51</t>
+          <t>-68,37; 612,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,05; 120,83</t>
+          <t>-80,52; 16,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,93; 314,61</t>
+          <t>-74,49; 41,11</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-81,94; 106,92</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-24,14; 456,19</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-8,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-11,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-56,3%</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-45,57%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-31,34%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-44,21%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>95,49%</t>
         </is>
       </c>
     </row>
@@ -868,40 +934,50 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,15</t>
+          <t>-22,92; -1,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 3,42</t>
+          <t>-10,95; 9,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 7,05</t>
+          <t>-15,35; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 4,24</t>
+          <t>-27,64; -2,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-6,67; 19,92</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 368,26</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,09%</t>
+          <t>-5,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>-32,53%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-4,99%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>88,84%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,12</t>
+          <t>-2,29; 2,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 4,5</t>
+          <t>-3,76; 3,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 2,44</t>
+          <t>-6,65; 0,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 5,42</t>
+          <t>-4,09; 3,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,96; 93,45</t>
+          <t>1,19; 13,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 126,92</t>
+          <t>-57,6; 150,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-38,61; 42,69</t>
+          <t>-47,09; 82,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 144,55</t>
+          <t>-62,62; 18,74</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-49,85; 81,05</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6,98; 267,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P24_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,84</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,64</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,13</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>71,67%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>79,08%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-23,82%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>71,3%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>92,05%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.249954684790714</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.980506018747478</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.717618206541834</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.929589811342207</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>5.816827839908835</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.7167230399557298</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.8240040500848128</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2266291790472234</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.792884937392937</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.8362867930160529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 4,84</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 7,71</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,71; 3,2</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,05; 8,89</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,38; 13,23</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-64,45; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-38,46; 437,32</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-70,74; 78,34</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-31,22; 298,46</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-2,35; 320,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.556862073735519</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.901767389432226</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.363591285938948</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.752440088340685</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.3771551772670778</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.644538408542548</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3491826100576969</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6978951518769886</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2889514781027459</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.06568932732060037</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.835971742815632</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.237883806316714</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.30548162394664</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.239848285750666</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>12.84758290377146</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>4.500840318004445</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.8187666141175894</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>3.077345183267835</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.075728406367263</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-4,8</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,59</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,18</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,95</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>33,12%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-50,02%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-37,58%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-37,63%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>83,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 4,7</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-10,86; 0,79</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-10,35; 1,93</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,28; 2,61</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,32; 22,15</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-68,37; 612,84</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-80,52; 16,89</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-74,49; 41,11</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-81,94; 106,92</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-24,14; 456,19</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.8833023113008577</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-5.312852323346965</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-4.060428936436487</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.351777450887749</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>6.207398892485802</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3311813111373843</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.5205160684512431</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.4054955023851063</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.3838918397820645</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.8178017134877283</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-8,49</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,89</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-11,87</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>25,3%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>95,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.77605687330928</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-13.58657562816975</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.96930890969025</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.869513350342686</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.9293985260338821</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.6837377415049884</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8511541967981865</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7761066360901709</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.8317102057250348</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2293221152482338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-22,92; -1,81</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,95; 9,06</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-15,35; 0,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-27,64; -2,4</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-6,67; 19,92</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.699636518775248</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.7726373830088545</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.733398558143141</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.75509143617332</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>18.77676908995113</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>6.128443591026543</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1991233345173519</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3339286779760169</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.196990564121416</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>3.989614983369977</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +877,213 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,6</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,34</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,08%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-5,71%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-32,53%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-4,99%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>88,84%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-8.48555008170201</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.9345536002275847</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.985217065557342</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-11.55103829532283</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>3.306910220325534</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.2819422043081522</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.6401421368509309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 2,3</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; 3,21</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,65; 0,92</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 3,45</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,19; 13,64</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-57,6; 150,06</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-47,09; 82,41</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-62,62; 18,74</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-49,85; 81,05</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>6,98; 267,77</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-22.91893580064232</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.32543371208672</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-15.65106110130134</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-27.28909593518879</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-7.809846746301297</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-1.809778224893839</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.756218690314098</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-2.659665477872323</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>16.41495070853934</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.05987540497257825</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.6991159468460024</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-2.794543401031567</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.2485660301518866</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>5.720451896463612</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.02083657214332956</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1096101452627782</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.34365104053205</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.0402220133496146</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.8168068040848496</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.289442825004688</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.750752494892782</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-7.263457909806292</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.085933166579212</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.9390431649983325</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.5759886060558291</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5265898290028941</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6537157095235839</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.504182477167827</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.06076523737553505</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.30313439916538</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.994910171845702</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.6680021037086357</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.540595625359385</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>12.15097618135125</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.500565551036785</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7555742230058474</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1282737472441535</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.7985267495254056</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.459102844461191</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1091,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
